--- a/biology/Botanique/Jardin_botanique_de_Sannois_des_Plantes_Médicinales/Jardin_botanique_de_Sannois_des_Plantes_Médicinales.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Sannois_des_Plantes_Médicinales/Jardin_botanique_de_Sannois_des_Plantes_Médicinales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Sannois_des_Plantes_M%C3%A9dicinales</t>
+          <t>Jardin_botanique_de_Sannois_des_Plantes_Médicinales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin botanique de Sannois des Plantes Médicinales est un jardin botanique de plantes médicinales situé dans le quartier Pasteur[1] à Sannois, dans le Val-d'Oise, en Île-de-France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin botanique de Sannois des Plantes Médicinales est un jardin botanique de plantes médicinales situé dans le quartier Pasteur à Sannois, dans le Val-d'Oise, en Île-de-France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Sannois_des_Plantes_M%C3%A9dicinales</t>
+          <t>Jardin_botanique_de_Sannois_des_Plantes_Médicinales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique, de statut privé[2], a été créé en 1985 par l'association Découverte et Connaissance de la Nature 95 et inauguré en 1986[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique, de statut privé, a été créé en 1985 par l'association Découverte et Connaissance de la Nature 95 et inauguré en 1986.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Sannois_des_Plantes_M%C3%A9dicinales</t>
+          <t>Jardin_botanique_de_Sannois_des_Plantes_Médicinales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il contient une grande collection de plusieurs dizaines de plantes médicinales[3] et est un lieu d'observation d'oiseaux[4]. Sa visite est gratuite.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il contient une grande collection de plusieurs dizaines de plantes médicinales et est un lieu d'observation d'oiseaux. Sa visite est gratuite.
 </t>
         </is>
       </c>
